--- a/output/google_maps_data_Transportasi_Bantul.xlsx
+++ b/output/google_maps_data_Transportasi_Bantul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0878-4564-4334</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>-7.886774</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.886774</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.346304</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tata+Transport/@-7.8867735,110.2742064,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e450fb000f:0x94020267570957cd!8m2!3d-7.8867735!4d110.3463042!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY29tcGFueZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSE9YVmZiWEpCUlJBQuABAPoBBAgAECA!16s%2Fg%2F11ddwtssqf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tata+Transport/@-7.8867735,110.2742064,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e450fb000f:0x94020267570957cd!8m2!3d-7.8867735!4d110.3463042!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY29tcGFueZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSSE9YVmZiWEpCUlJBQuABAPoBBAgAECA!16s%2Fg%2F11ddwtssqf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -548,25 +542,24 @@
           <t>0812-2805-7458</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.896309</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.896309</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.347245</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ardya+transport/@-7.8867735,110.2742064,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a554657cd7a47:0x3202e9c02034e503!8m2!3d-7.8963089!4d110.3472448!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY2hhcnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUE1YRlBkMHBCRUFF4AEA-gEECAAQOw!16s%2Fg%2F11fjvzzrmp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ardya+transport/@-7.8867735,110.2742064,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a554657cd7a47:0x3202e9c02034e503!8m2!3d-7.8963089!4d110.3472448!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY2hhcnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSUE1YRlBkMHBCRUFF4AEA-gEECAAQOw!16s%2Fg%2F11fjvzzrmp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -589,25 +582,24 @@
           <t>(0274) 2816548</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.9</v>
+        <v>-7.874281</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.874281</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.318432</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Amna+Transport+Office/@-7.8867735,110.2742064,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af8b1ddaa3023:0xc554d487b8d8971b!8m2!3d-7.8742813!4d110.318432!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0yTkV0ZmExTkJFQUXgAQD6AQQIABAn!16s%2Fg%2F11c6sfwh4n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -626,25 +618,24 @@
           <t>0895-3940-30807</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>-7.806887</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.806887</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.406203</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/WIJAYA+TRANS+JOGJA+bantul/@-7.8068875,110.3341053,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57004b94d167:0x98f6e087af7652c8!8m2!3d-7.8068875!4d110.4062031!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJtTjBzM2RWSlJFQUXgAQD6AQQIABAz!16s%2Fg%2F11lz52tzzk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -663,25 +654,24 @@
           <t>0895-3940-30807</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.905294</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.905294</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.318584</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Terminal+Palbapang+Bantul/@-7.905294,110.2464864,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7afffa38fc2c9b:0x27d9be7ef5ab323e!8m2!3d-7.905294!4d110.3185842!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFidXNfdGlja2V0X2FnZW5jeZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSU2NHVXRWbU5CRUFF4AEA-gEECAAQSQ!16s%2Fg%2F11f9fcdp3f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -700,25 +690,24 @@
           <t>0821-3620-8006</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.845289</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.845289</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.331261</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/jambu+transport/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a574bbc97e42d:0x45ca3c6d6ed473f8!8m2!3d-7.8452886!4d110.3312613!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11f9w27jdn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -738,22 +727,21 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-7.872426</v>
+      </c>
       <c r="G8" t="n">
-        <v>-7.872426</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.326871</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mandiri+transport+Bantul/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af97682a5b927:0x4a0650ce9ce06e22!8m2!3d-7.8724264!4d110.3268705!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11sz580p4r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,25 +760,24 @@
           <t>0815-1515-0916</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>-7.844018</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.844018</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.345931</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/JRX+Bantul+-+Jogja/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5792ed40255b:0xfffaadb2a25dee61!8m2!3d-7.8440182!4d110.3459307!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11k9s126xj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -813,25 +800,24 @@
           <t>0812-6850-4793</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>-7.856556</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.856556</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.34071</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POSITIVTRANSJOGJA/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57ea5509aa4d:0x1b63f332ce56e889!8m2!3d-7.8565559!4d110.3407101!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11t5_x94ns?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -850,25 +836,24 @@
           <t>0813-9039-7716</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.891747</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.891747</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.363347</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Agus+Putra+Jasa+Angkut+Bantul/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a550054308817:0xb5fa1bb99d53c44a!8m2!3d-7.8917468!4d110.3633473!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11ybvdfkx9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -887,25 +872,24 @@
           <t>0813-2699-4143</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.873491</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.873491</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.32701</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Falisha+trans/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9b695159f15:0x16a4916338d265df!8m2!3d-7.8734908!4d110.3270102!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ4TjB4cWIzTjNSUkFC4AEA-gEECAAQNA!16s%2Fg%2F11np31nj25?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -924,25 +908,24 @@
           <t>0811-1501-212</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.876072</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.876072</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.348395</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PO+YESTERKE+Multitransindo/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a56096359c597:0x8eb83921d80aaaba!8m2!3d-7.8760717!4d110.348395!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY2hhcnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSU2JVd3lVSEozUlJBQuABAPoBBAgAECQ!16s%2Fg%2F11bbrkgm39?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,25 +940,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>-7.895798</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.895798</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.336886</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BASECAMP+JOGJAKITA+BANTUL+KOTA/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55f00db65a57:0x924fc43c80acaaef!8m2!3d-7.8957982!4d110.3368863!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11kq_3yhz4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,25 +976,24 @@
           <t>0877-3953-3390</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.7</v>
+        <v>-7.876558</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.876558</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.326111</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Garasi+Sor+sawo+Group/@-7.8452886,110.2591635,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af902f7c1e72d:0xaf9204186f81fd4d!8m2!3d-7.8765584!4d110.326111!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARB0cnVja2luZ19jb21wYW55mgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DZWxCVGNscG5FQUXgAQD6AQQIABAi!16s%2Fg%2F11fkdrlftg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,25 +1012,24 @@
           <t>0818-0412-1324</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.9162</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.9162</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.312293</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Royom+Transport/@-7.9161997,110.2401956,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff9b4460db71:0x31ddf328ecaacb9!8m2!3d-7.9161997!4d110.3122934!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxZDJFM2RYaDNSUkFC4AEA-gEECAAQDA!16s%2Fg%2F11mvqrtjj3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1064,25 +1044,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.905267</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.905267</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.318577</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Terminal+Trans+Jogja+Palbapang/@-7.9161997,110.2401956,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff34fd04261d:0x2a82f84b21d7adea!8m2!3d-7.9052671!4d110.3185768!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI2Y2preU5GWkJFQUXgAQD6AQQIABBH!16s%2Fg%2F11kk1l5dv8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1097,25 +1076,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.3</v>
+        <v>-7.905271</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.905271</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.318492</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Terminal+Palbapang/@-7.9161997,110.2401956,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff68a2ef5181:0x162fde9edac97bf2!8m2!3d-7.9052706!4d110.3184915!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfc3RhdGlvbpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNeGFYVkVZbXBuUlJBQuABAPoBBQioAhBB!16s%2Fg%2F11c5snqktd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1138,25 +1116,24 @@
           <t>(0274) 367867</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.904747</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.904747</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.347933</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mal+Pelayanan+Publik+Bantul/@-7.9161997,110.2401956,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55001c67d2bd:0x67c514b3114ce756!8m2!3d-7.9047471!4d110.3479333!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11wvvb39qk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,25 +1156,24 @@
           <t>0817-454-111</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>-7.826932</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.826932</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.363269</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Menjangan+Transport/@-7.8269323,110.2911707,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b769821967:0x3669868f10d4b409!8m2!3d-7.8269323!4d110.3632685!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU15TkdVelJrOUJFQUXgAQD6AQQIABA1!16s%2Fg%2F1pv5tk8dl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1212,25 +1188,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>-7.894795</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.894795</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.346968</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/JNT+CARGO+BANTUL/@-7.8947946,110.2748705,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55ae4ee3ca7d:0x3aad38986b6e0c6f!8m2!3d-7.8947946!4d110.3469683!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11swn1q91c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1249,25 +1224,24 @@
           <t>0895-0978-0020</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>-7.873276</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.873276</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.320017</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Srikandi+Transport/@-7.8947946,110.2748705,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9ab15491cc3:0x31a1013ce4cf96e4!8m2!3d-7.8732756!4d110.3200172!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ITTA5TGFFMVJFQUXgAQD6AQQIABBJ!16s%2Fg%2F11rcy9z4yt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1286,25 +1260,24 @@
           <t>0895-0978-0020</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>-7.864628</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.864628</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.308573</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Semut+Ireng+Transport+%7C+Sewa+Bus+Jogja/@-7.8646279,110.2364752,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af8bf387361d3:0x9033071fc574b851!8m2!3d-7.8646279!4d110.308573!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY2hhcnRlcpoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSeGVqUXRRbEpCRUFF4AEA-gEECAAQRg!16s%2Fg%2F11b7018n52?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1323,25 +1296,24 @@
           <t>0813-2530-9699</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-7.868369</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.868369</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.31312</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Garasi+rono+rene+renes+transportasi+(rumah+mase+a'an)/@-7.8646279,110.2364752,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af922362cd98b:0xbe87a03281851335!8m2!3d-7.8683693!4d110.3131196!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11syc_5xzg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1360,25 +1332,24 @@
           <t>0858-6852-8094</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-7.829102</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.829102</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.364085</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Transportasi+Pur+gas/@-7.8291019,110.2919871,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57cca40bacb5:0x19f1a8cf3f9bcc44!8m2!3d-7.8291019!4d110.3640849!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0TTJKRWFEUkJSUkFC4AEA-gEECAAQEA!16s%2Fg%2F11r73x63h7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1393,25 +1364,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>-7.887909</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.887909</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.331706</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/AmbulanMu+Bantul+Kota/@-7.8291019,110.2919871,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55082a57a2c7:0xc09a1a658b28ae6d!8m2!3d-7.8879091!4d110.3317056!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVIyYTNBdFJVNUJFQUXgAQD6AQQIABAw!16s%2Fg%2F11s532t89z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1430,25 +1400,24 @@
           <t>0856-4353-3454</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.875279</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.875279</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.324369</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sindu+Tour+and+Travel/@-7.8752794,110.2522714,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af97985c1b3b5:0x363949f06a0be0d6!8m2!3d-7.8752794!4d110.3243692!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5ITkRsZldHWm5FQUXgAQD6AQQIABBH!16s%2Fg%2F11frqq91pd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1463,25 +1432,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.888265</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.888265</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.331406</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Basecamp+Maxim+BMD+Bantul+Kota/@-7.8752794,110.2522714,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55bc7ec87011:0xdaa69a5bec415b7e!8m2!3d-7.8882654!4d110.3314062!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11v9_jlz24?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1500,25 +1468,24 @@
           <t>0812-8267-3933</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.2</v>
+        <v>-7.862066</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.862066</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.340186</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/J%26T+Cargo+Bantul+yogyakarta/@-7.8752794,110.2522714,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5715036bbd03:0x5ae2757bffeaaab6!8m2!3d-7.8620663!4d110.3401856!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOSGJ6aExYMEozRUFF4AEA-gEECGUQMQ!16s%2Fg%2F11rhs0vbhr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1537,25 +1504,24 @@
           <t>0812-2735-101</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.4</v>
+        <v>-7.845446</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.845446</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.417746</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jembar+Rejeki+Transportasi/@-7.8454461,110.3456477,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a572705b362dd:0x5edb6063ecfd23a4!8m2!3d-7.8454461!4d110.4177455!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARBjb3Jwb3JhdGVfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5Y0dSeE9XdG5SUkFC4AEA-gEECAAQFg!16s%2Fg%2F11j1bts_mk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1574,25 +1540,24 @@
           <t>0812-2735-101</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>-7.896375</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.896375</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.364628</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PRATAMA+TRANSPORTASI/@-7.8963753,110.2925306,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55b3896c881f:0xe051fcf917e91ed4!8m2!3d-7.8963753!4d110.3646284!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11l_g7h_yr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1607,25 +1572,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>-7.885134</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.885134</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.331506</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BC+driver+gabluk/@-7.8851337,110.2594083,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55005133eff3:0xc021afd7d75b1c2b!8m2!3d-7.8851337!4d110.3315061!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJNZGs1WVpFNTNFQUXgAQD6AQQIABAl!16s%2Fg%2F11vzflvw7g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BC+driver+gabluk/@-7.8851337,110.2594083,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55005133eff3:0xc021afd7d75b1c2b!8m2!3d-7.8851337!4d110.3315061!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJNZGs1WVpFNTNFQUXgAQD6AQQIABAl!16s%2Fg%2F11vzflvw7g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1652,25 +1616,24 @@
           <t>0812-2988-6243</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.9</v>
+        <v>-7.833891</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.833891</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.40463</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GUNDUL+TRANSPORT+(%EA%A6%92%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%A0%EA%A7%80)/@-7.8338912,110.3325324,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57203f7230ff:0xd57deec088552af4!8m2!3d-7.8338912!4d110.4046302!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY2hhcnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmRuWlhURGRuUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11hcds5f9x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GUNDUL+TRANSPORT+(%EA%A6%92%EA%A6%B8%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%B8%EA%A6%AD%EA%A7%80%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%A0%EA%A7%80)/@-7.8338912,110.3325324,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57203f7230ff:0xd57deec088552af4!8m2!3d-7.8338912!4d110.4046302!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY2hhcnRlcpoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmRuWlhURGRuUlJBQuABAPoBBAgAEDk!16s%2Fg%2F11hcds5f9x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1693,25 +1656,24 @@
           <t>0896-0422-3222</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.8</v>
+        <v>-7.881986</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.881986</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.332527</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/J%26T+CARGO+BANTUL+(+BTL016B+)/@-7.8819856,110.2604289,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55a87b9b5e23:0x312269b6595f3cc0!8m2!3d-7.8819856!4d110.3325267!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOZmVVdFVORXhSRUFF4AEA-gEECAAQRg!16s%2Fg%2F11t9k9nrz3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1727,22 +1689,21 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-7.879304</v>
+      </c>
       <c r="G35" t="n">
-        <v>-7.879304</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.3336</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+Angkut+Go+Transpot/@-7.8819856,110.2604289,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a573069058cdb:0x857480f2e315595!8m2!3d-7.8793042!4d110.3336002!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11fwg30rhp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1757,25 +1718,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.897401</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.897401</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.322988</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MARKAS+GOJEK+SUMURAN/@-7.8819856,110.2604289,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff94436fb973:0xd52e4e8ec3123f07!8m2!3d-7.8974015!4d110.3229877!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DTUU5MmFURkJSUkFC4AEA-gEECAAQEA!16s%2Fg%2F11sczxb96_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MARKAS+GOJEK+SUMURAN/@-7.8819856,110.2604289,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff94436fb973:0xd52e4e8ec3123f07!8m2!3d-7.8974015!4d110.3229877!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5DTUU5MmFURkJSUkFC4AEA-gEECAAQEA!16s%2Fg%2F11sczxb96_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1798,25 +1758,24 @@
           <t>0899-5074-193</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.881047</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.881047</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.403241</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+Angkut+Murah+Bantul+Jogjakarta/@-7.8810466,110.331143,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55c5ceef41d9:0x7bad5ea318f3dab5!8m2!3d-7.8810466!4d110.4032408!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARBzaGlwcGluZ19zZXJ2aWNl4AEA!16s%2Fg%2F11m49l6q5q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+Angkut+Murah+Bantul+Jogjakarta/@-7.8810466,110.331143,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55c5ceef41d9:0x7bad5ea318f3dab5!8m2!3d-7.8810466!4d110.4032408!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARBzaGlwcGluZ19zZXJ2aWNl4AEA!16s%2Fg%2F11m49l6q5q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1839,25 +1798,24 @@
           <t>(0274) 2810023</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F38" t="n">
-        <v>3.9</v>
+        <v>-7.882795</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.882795</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.33222</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/JNE+Gresika+1+Bantul/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55ff9dc5e5b7:0x9798a88e65d26ccd!8m2!3d-7.8827946!4d110.3322195!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQ9jb3VyaWVyX3NlcnZpY2XgAQA!16s%2Fg%2F11b6hyfsp8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1876,25 +1834,24 @@
           <t>0812-2720-4072</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>-7.885262</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.885262</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.344718</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BIMO+TRANS+RENTAL+MOBIL+MURAH/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e49a2ce247:0x941d5a1c9816d3f8!8m2!3d-7.8852622!4d110.3447176!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgERY2FyX3JlbnRhbF9hZ2VuY3ngAQA!16s%2Fg%2F11gbv1qb3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BIMO+TRANS+RENTAL+MOBIL+MURAH/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e49a2ce247:0x941d5a1c9816d3f8!8m2!3d-7.8852622!4d110.3447176!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgERY2FyX3JlbnRhbF9hZ2VuY3ngAQA!16s%2Fg%2F11gbv1qb3z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1921,25 +1878,24 @@
           <t>0896-7571-6767</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F40" t="n">
-        <v>3.4</v>
+        <v>-7.874333</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.874333</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.351587</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J%26T+CARGO+BANTUL+YOGYAKARTA/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a560b822cd7d9:0x5eb4c99731925a12!8m2!3d-7.8743328!4d110.3515865!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmJWQmxRV2xSUlJBQuABAPoBBAhAEB4!16s%2Fg%2F11c6rjhv1y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/J%26T+CARGO+BANTUL+YOGYAKARTA/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a560b822cd7d9:0x5eb4c99731925a12!8m2!3d-7.8743328!4d110.3515865!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmJWQmxRV2xSUlJBQuABAPoBBAhAEB4!16s%2Fg%2F11c6rjhv1y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1958,25 +1914,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.6</v>
+        <v>-7.880086</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.880086</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.33303</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Halte+Masjid+Agung/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5510204d1697:0x4b9dab3000970031!8m2!3d-7.8800856!4d110.3330299!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJzZUU5ZlRVbG5FQUXgAQD6AQQIABAV!16s%2Fg%2F11rjq9624p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1995,25 +1950,24 @@
           <t>0896-5955-2070</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.879038</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.879038</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.320969</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Semarmoyosell%26Trans+AjiCollection%7C%7C%EA%A7%8B%EA%A6%B1%EA%A6%BA%EA%A6%A9%EA%A6%82%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%95%EA%A6%BA%EA%A6%AD%EA%A7%80%EA%A6%AD%EA%A7%80%EA%A6%A2%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%97%EA%A6%B6%EA%A6%95%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%AD%EA%A6%BA%EA%A6%95%EA%A7%80%EA%A6%A0%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9356f470a3f:0x298653490b78fd2!8m2!3d-7.8790385!4d110.3209687!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEQY2VsbF9waG9uZV9zdG9yZeABAA!16s%2Fg%2F11jhy1tx27?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Semarmoyosell%26Trans+AjiCollection%7C%7C%EA%A7%8B%EA%A6%B1%EA%A6%BA%EA%A6%A9%EA%A6%82%EA%A6%A9%EA%A6%BA%EA%A6%B4%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%95%EA%A6%BA%EA%A6%AD%EA%A7%80%EA%A6%AD%EA%A7%80%EA%A6%A2%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BF%EA%A6%A4%EA%A7%80%EA%A6%B1%EA%A6%97%EA%A6%B6%EA%A6%95%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%AD%EA%A6%BA%EA%A6%95%EA%A7%80%EA%A6%A0%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80/@-7.8827946,110.2601217,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9356f470a3f:0x298653490b78fd2!8m2!3d-7.8790385!4d110.3209687!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEQY2VsbF9waG9uZV9zdG9yZeABAA!16s%2Fg%2F11jhy1tx27?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2036,25 +1990,24 @@
           <t>(0274) 4296582</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>-7.809757</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.809757</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.323964</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ANDALAN+NAFAST+TRANSPORTASI+KARGO/@-7.8097572,110.2518666,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57836dd29773:0x54c88608947975d8!8m2!3d-7.8097572!4d110.3239644!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJITmpsTVVUUlJSUkFC4AEA-gEECAAQLg!16s%2Fg%2F11s0s2n2zs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2073,25 +2026,24 @@
           <t>0822-2380-8507</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.89293</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.89293</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.337297</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+Ambulance+24+jam+Bantul/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a551801eca0d7:0x50bcc55ae7205aa4!8m2!3d-7.8929296!4d110.3372973!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQhhaXJfdGF4aZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWFgzQmhkRFJCUlJBQuABAPoBBAgAEA0!16s%2Fg%2F11rylkcpxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+Ambulance+24+jam+Bantul/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a551801eca0d7:0x50bcc55ae7205aa4!8m2!3d-7.8929296!4d110.3372973!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQhhaXJfdGF4aZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOWFgzQmhkRFJCUlJBQuABAPoBBAgAEA0!16s%2Fg%2F11rylkcpxt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2114,25 +2066,24 @@
           <t>0885-4356-1245</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F45" t="n">
-        <v>3.4</v>
+        <v>-7.909224</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.909224</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.347489</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rental+%26+Tour+Travel+Jogja+Istimewa/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5727e44fb3b7:0xbe3966b4414329fa!8m2!3d-7.9092242!4d110.3474886!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMWIzVjJlVEpSUlJBQuABAPoBBAgpEEg!16s%2Fg%2F11svv8xqsn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rental+%26+Tour+Travel+Jogja+Istimewa/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5727e44fb3b7:0xbe3966b4414329fa!8m2!3d-7.9092242!4d110.3474886!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMWIzVjJlVEpSUlJBQuABAPoBBAgpEEg!16s%2Fg%2F11svv8xqsn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -2155,25 +2106,24 @@
           <t>0895-3765-21273</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.877469</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.877469</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.319982</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CV+Parmintur+Mandiri.+Jogja+Pleasure,+Have+a+nice+trip+%26+salam+piknik+selalu/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9ea645a58f1:0xf3ba343007ce03a!8m2!3d-7.8774689!4d110.3199816!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h5f8s610?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CV+Parmintur+Mandiri.+Jogja+Pleasure,+Have+a+nice+trip+%26+salam+piknik+selalu/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9ea645a58f1:0xf3ba343007ce03a!8m2!3d-7.8774689!4d110.3199816!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h5f8s610?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2196,25 +2146,24 @@
           <t>0818-0273-7214</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.89144</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.89144</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.352299</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkut+paris/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e8505fbc8d:0xc838af382e636544!8m2!3d-7.89144!4d110.3522989!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4xY2twMVFtUlJFQUXgAQD6AQQIABAx!16s%2Fg%2F11b6nt5xlg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkut+paris/@-7.8929296,110.2651995,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e8505fbc8d:0xc838af382e636544!8m2!3d-7.89144!4d110.3522989!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU4xY2twMVFtUlJFQUXgAQD6AQQIABAx!16s%2Fg%2F11b6nt5xlg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -2241,25 +2190,24 @@
           <t>0877-3880-5553</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>-7.792973</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.792973</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.408576</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SYNDICATE+transport+and+tour+package/@-7.7929735,110.3364781,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a59f8b8f92f9d:0x56401e0041607e1a!8m2!3d-7.7929735!4d110.4085759!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h9gxcy_0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SYNDICATE+transport+and+tour+package/@-7.7929735,110.3364781,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a59f8b8f92f9d:0x56401e0041607e1a!8m2!3d-7.7929735!4d110.4085759!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11h9gxcy_0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2278,25 +2226,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>-7.880286</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.880286</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.333212</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/AMBULANCE+SERVICE+MJC/@-7.8802859,110.2611145,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55b6fde78503:0xa20512e1d5bd05ba!8m2!3d-7.8802859!4d110.3332123!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xTm5SNWFuTjNSUkFC4AEA-gEECAAQIA!16s%2Fg%2F11ngjj8nzn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2319,25 +2266,24 @@
           <t>0811-2735-426</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.9</v>
+        <v>-7.8616</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.8616</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.355359</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Antar+Jemput+Bandara+YIA-+Jogja+-+Davi+Tour/@-7.8802859,110.2611145,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a566b2592a00b:0x2a8962f064a39b41!8m2!3d-7.8616003!4d110.3553588!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARdhaXJwb3J0X3NodXR0bGVfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWU1tRjZTa0ZSRUFF4AEA-gEECCgQOg!16s%2Fg%2F11ggs2lg17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Antar+Jemput+Bandara+YIA-+Jogja+-+Davi+Tour/@-7.8802859,110.2611145,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a566b2592a00b:0x2a8962f064a39b41!8m2!3d-7.8616003!4d110.3553588!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARdhaXJwb3J0X3NodXR0bGVfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOWU1tRjZTa0ZSRUFF4AEA-gEECCgQOg!16s%2Fg%2F11ggs2lg17?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2364,25 +2310,24 @@
           <t>(0274) 367321</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F51" t="n">
-        <v>3.7</v>
+        <v>-7.904652</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.904652</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.349304</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dinas+Perhubungan+Kabupaten+Bantul/@-7.8802859,110.2611145,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55941c88759d:0x3b269dceb0e9a135!8m2!3d-7.9046518!4d110.3493039!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARRjaXR5X2Rpc3RyaWN0X29mZmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOdVozSjJPRUZuRUFF4AEA-gEECAAQFQ!16s%2Fg%2F11c6q7z9g0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2401,25 +2346,24 @@
           <t>0822-4359-2245</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>-7.824368</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.824368</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.343179</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Azzahra+transport/@-7.8243682,110.2710807,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5749f46537ed:0x927837b214391b63!8m2!3d-7.8243682!4d110.3431785!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTGRqWjFXV2RSUlJBQuABAPoBBAgAEBs!16s%2Fg%2F11llyyxb72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Azzahra+transport/@-7.8243682,110.2710807,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5749f46537ed:0x927837b214391b63!8m2!3d-7.8243682!4d110.3431785!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSTGRqWjFXV2RSUlJBQuABAPoBBAgAEBs!16s%2Fg%2F11llyyxb72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -2439,22 +2383,21 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>-7.828086</v>
+      </c>
       <c r="G53" t="n">
-        <v>-7.828086</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.395371</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bodon,Jagalan,+Banguntapan,Kabupaten+Bantul,+Daerah+Istimewa+Yogyakarta/@-7.8280858,110.3232728,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57003bb73f91:0x58f8520fc146e3ed!8m2!3d-7.8280858!4d110.3953706!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11wg7q0__v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2469,25 +2412,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.2</v>
+        <v>-7.891044</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.891044</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.382974</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+cembing+trimulyo+jetis+bantul/@-7.8910441,110.3108762,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5596ad0b22c7:0xacfa313acc6de8fb!8m2!3d-7.8910441!4d110.382974!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11hf8kf_rq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+cembing+trimulyo+jetis+bantul/@-7.8910441,110.3108762,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5596ad0b22c7:0xacfa313acc6de8fb!8m2!3d-7.8910441!4d110.382974!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11hf8kf_rq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2514,25 +2456,24 @@
           <t>0817-2339-333</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>-7.852213</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.852213</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.392159</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rental+mobil,+Sewa+Mobil+Jogja+CV.Ragil+Transport/@-7.8910441,110.3108762,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a56ee1c1728b5:0x489084c80330a3a5!8m2!3d-7.8522128!4d110.3921591!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeeABAA!16s%2Fg%2F11dxbd6fyt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rental+mobil,+Sewa+Mobil+Jogja+CV.Ragil+Transport/@-7.8910441,110.3108762,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a56ee1c1728b5:0x489084c80330a3a5!8m2!3d-7.8522128!4d110.3921591!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeeABAA!16s%2Fg%2F11dxbd6fyt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2556,22 +2497,21 @@
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>-7.877669</v>
+      </c>
       <c r="G56" t="n">
-        <v>-7.877669</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.325663</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PT+ASGA+PUTRA+MANDIRI/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af900116d4cc9:0x182e17158475642c!8m2!3d-7.8776689!4d110.3256632!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11lyzb0f7s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2586,25 +2526,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.839834</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.839834</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.349484</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Halte+Bis+Niten/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b502fb8209:0xff5812cf2150baa9!8m2!3d-7.8398339!4d110.3494836!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEJYnVzX2RlcG904AEA!16s%2Fg%2F11nnrkdmpr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Halte+Bis+Niten/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b502fb8209:0xff5812cf2150baa9!8m2!3d-7.8398339!4d110.3494836!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEJYnVzX2RlcG904AEA!16s%2Fg%2F11nnrkdmpr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2627,25 +2566,24 @@
           <t>0822-1160-0306</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4</v>
+      </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>-7.89485</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.89485</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.357467</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/RTL+EKSPRES/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55db09e9bb8b:0x30862ea414e1a745!8m2!3d-7.89485!4d110.3574669!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmVrOTFUbk5uUlJBQuABAPoBBAgAEBo!16s%2Fg%2F11nnqk8vvr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/RTL+EKSPRES/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55db09e9bb8b:0x30862ea414e1a745!8m2!3d-7.89485!4d110.3574669!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmVrOTFUbk5uUlJBQuABAPoBBAgAEBo!16s%2Fg%2F11nnqk8vvr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2664,25 +2602,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>-7.904386</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.904386</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.321283</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Halte+Palbapang/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff79c3948ffb:0xf4a13544377c3454!8m2!3d-7.9043857!4d110.3212829!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF0YTJSaFEzaEJSUkFC4AEA-gEECAAQIQ!16s%2Fg%2F11qzffgyz9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2701,25 +2638,24 @@
           <t>0818-0260-6296</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.873818</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.873818</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.331872</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pak+sardi+taksi/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57907246cff1:0xcec05541c2f86c75!8m2!3d-7.8738179!4d110.3318723!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qq209fq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pak+sardi+taksi/@-7.8776689,110.2535654,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57907246cff1:0xcec05541c2f86c75!8m2!3d-7.8738179!4d110.3318723!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qq209fq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2746,25 +2682,24 @@
           <t>0877-3852-4592</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.3</v>
+        <v>-7.837161</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.837161</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.400782</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pool+Bus+Sumber+Alam+Yogyakarta/@-7.8371613,110.3286837,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5783a80c7fb1:0x6bda1973967e9859!8m2!3d-7.8371613!4d110.4007815!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY29tcGFueZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGREaGllV2huUlJBQuABAPoBBAgAEEY!16s%2Fg%2F1ptxkkjnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pool+Bus+Sumber+Alam+Yogyakarta/@-7.8371613,110.3286837,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5783a80c7fb1:0x6bda1973967e9859!8m2!3d-7.8371613!4d110.4007815!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY29tcGFueZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGREaGllV2huUlJBQuABAPoBBAgAEEY!16s%2Fg%2F1ptxkkjnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2791,25 +2726,24 @@
           <t>0877-3852-4592</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.3</v>
+        <v>-7.837161</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.837161</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.400782</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pool+Bus+Sumber+Alam+Yogyakarta/@-7.8371613,110.3286837,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5783a80c7fb1:0x6bda1973967e9859!8m2!3d-7.8371613!4d110.4007815!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY29tcGFueZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGREaGllV2huUlJBQuABAPoBBAgAEEY!16s%2Fg%2F1ptxkkjnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pool+Bus+Sumber+Alam+Yogyakarta/@-7.8371613,110.3286837,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5783a80c7fb1:0x6bda1973967e9859!8m2!3d-7.8371613!4d110.4007815!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtidXNfY29tcGFueZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeGREaGllV2huUlJBQuABAPoBBAgAEEY!16s%2Fg%2F1ptxkkjnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2832,25 +2766,24 @@
           <t>0818-0260-6296</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>-7.873818</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.873818</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.331872</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pak+sardi+taksi/@-7.8738179,110.2597745,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57907246cff1:0xcec05541c2f86c75!8m2!3d-7.8738179!4d110.3318723!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qq209fq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pak+sardi+taksi/@-7.8738179,110.2597745,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57907246cff1:0xcec05541c2f86c75!8m2!3d-7.8738179!4d110.3318723!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11qq209fq8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2877,25 +2810,24 @@
           <t>0852-2552-2170</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.9</v>
+        <v>-7.835349</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.835349</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.366076</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J%26T+Cargo+dan+J%26T+Express+Druwo+Kirim+Paket+Sewon+Bantul/@-7.8738179,110.2597745,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5782560a5599:0x74d068b47b01c0ee!8m2!3d-7.8353491!4d110.3660761!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARBzaGlwcGluZ19zZXJ2aWNl4AEA!16s%2Fg%2F11t3lcr3yl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/J%26T+Cargo+dan+J%26T+Express+Druwo+Kirim+Paket+Sewon+Bantul/@-7.8738179,110.2597745,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5782560a5599:0x74d068b47b01c0ee!8m2!3d-7.8353491!4d110.3660761!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARBzaGlwcGluZ19zZXJ2aWNl4AEA!16s%2Fg%2F11t3lcr3yl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2918,25 +2850,24 @@
           <t>0822-2125-1392</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>-7.824952</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.824952</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.370057</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Y+K,+Tourist+Transportation/@-7.8249516,110.2979593,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5725b451d3d3:0xb3dbe6f103ddeb25!8m2!3d-7.8249516!4d110.3700571!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJTTldJM1dIbFJSUkFC4AEA-gEECAAQOA!16s%2Fg%2F11j5q44g8v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Y+K,+Tourist+Transportation/@-7.8249516,110.2979593,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5725b451d3d3:0xb3dbe6f103ddeb25!8m2!3d-7.8249516!4d110.3700571!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJTTldJM1dIbFJSUkFC4AEA-gEECAAQOA!16s%2Fg%2F11j5q44g8v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2963,25 +2894,24 @@
           <t>(0274) 4286730</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>-7.835947</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.835947</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.366008</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Combi+Logistics+Indonesia+-+Yogyakarta+Office/@-7.8249516,110.2979593,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57c4fd9b06eb:0x2a78cbf98cc59003!8m2!3d-7.835947!4d110.366008!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaE9UaG1lbmRSUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11hflyc3s6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Combi+Logistics+Indonesia+-+Yogyakarta+Office/@-7.8249516,110.2979593,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57c4fd9b06eb:0x2a78cbf98cc59003!8m2!3d-7.835947!4d110.366008!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOaE9UaG1lbmRSUlJBQuABAPoBBAgAEBc!16s%2Fg%2F11hflyc3s6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3001,22 +2931,21 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="n">
+        <v>-7.880645</v>
+      </c>
       <c r="G67" t="n">
-        <v>-7.880645</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.320964</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Aqilla+transpot/@-7.880645,110.2488659,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9006cd40beb:0x2097685af9733d60!8m2!3d-7.880645!4d110.3209637!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11y627dz6_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3039,25 +2968,24 @@
           <t>0821-3631-1298</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F68" t="n">
-        <v>3.8</v>
+        <v>-7.858775</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.858775</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.389785</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sentral+Cargo+Bantul+Pusat/@-7.8587751,110.3176871,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57ca618f0311:0x26f6731e7cc492e5!8m2!3d-7.8587751!4d110.3897849!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTWJsOVBZVU5CRUFF4AEA-gEECAAQHQ!16s%2Fg%2F11vw_8f46w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3073,22 +3001,21 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.781342</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.781342</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.3508</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tapal+batas+Kota+Jogya+dg+kabupaten+Bantul+Di+Jl+Kyai+Mojo,+Jogyakarta/@-7.7813419,110.2787021,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5994c4b9580b:0x7cad1aa83ed88b34!8m2!3d-7.7813419!4d110.3507999!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11rq8gk98d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3111,25 +3038,24 @@
           <t>0812-1550-6660</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>5</v>
+      </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>-7.800876</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.800876</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.3473</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CV.+ARRAMCO+TOUR+N+TRAVEL/@-7.7813419,110.2787021,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57aa0ed13f77:0x5d32018af8edfcb3!8m2!3d-7.8008761!4d110.3473003!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11stlr9q3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CV.+ARRAMCO+TOUR+N+TRAVEL/@-7.7813419,110.2787021,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57aa0ed13f77:0x5d32018af8edfcb3!8m2!3d-7.8008761!4d110.3473003!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNl4AEA!16s%2Fg%2F11stlr9q3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -3148,25 +3074,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.6</v>
+        <v>-7.86557</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.86557</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.321373</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jembatan+Gantung+Tegaldowo%EA%A7%8B%EA%A6%97%EA%A6%BC%EA%A6%A9%EA%A7%80%EA%A6%A7%EA%A6%A0%EA%A6%A4%EA%A7%80%EA%A6%92%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%B8%EA%A6%81%EA%A6%A0%EA%A6%BC%EA%A6%92%EA%A6%AD%EA%A7%80%EA%A6%9D%EA%A6%BA%EA%A6%B4%EA%A6%AE%EA%A6%BA%EA%A6%B4/@-7.8655698,110.2492756,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9d574253357:0xd8735f26f6bb6844!8m2!3d-7.8655698!4d110.3213734!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnRMWEZ5YUdoblJSQULgAQD6AQQIABBH!16s%2Fg%2F11hdvvcgn5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3185,25 +3110,24 @@
           <t>0831-4434-47277</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>-7.852529</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.852529</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.319324</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkut+sampah/@-7.8655698,110.2492756,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af97201bf075b:0xdb0de2545e6dfeed!8m2!3d-7.8525292!4d110.3193238!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYZGw5TGRsWm5FQUXgAQD6AQQIABAa!16s%2Fg%2F11q3pgjpy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkut+sampah/@-7.8655698,110.2492756,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af97201bf075b:0xdb0de2545e6dfeed!8m2!3d-7.8525292!4d110.3193238!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJYZGw5TGRsWm5FQUXgAQD6AQQIABAa!16s%2Fg%2F11q3pgjpy1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3226,25 +3150,24 @@
           <t>0831-3710-8756</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>5</v>
+      </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>-7.823193</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.823193</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.354756</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jasa+angkut+bantul/@-7.8655698,110.2492756,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b842e922c3:0xbadfad61e21559be!8m2!3d-7.823193!4d110.3547564!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQ9jb3VyaWVyX3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJiSFJUYURSblJSQULgAQD6AQQIABAO!16s%2Fg%2F11fqvzt1mr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jasa+angkut+bantul/@-7.8655698,110.2492756,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b842e922c3:0xbadfad61e21559be!8m2!3d-7.823193!4d110.3547564!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQ9jb3VyaWVyX3NlcnZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJiSFJUYURSblJSQULgAQD6AQQIABAO!16s%2Fg%2F11fqvzt1mr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3264,22 +3187,21 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="n">
+        <v>-7.888175</v>
+      </c>
       <c r="G74" t="n">
-        <v>-7.888175</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.329414</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mardi+Suswati/@-7.8655698,110.2492756,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7affc02942dfa3:0x2dac997b9889c9ad!8m2!3d-7.888175!4d110.3294138!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11s9j325j1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3295,22 +3217,21 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>-7.88033</v>
+      </c>
       <c r="G75" t="n">
-        <v>-7.88033</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.332587</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mobil+Jenazah/@-7.8655698,110.2492756,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a550025993b1f:0x749aa7a784b2065e!8m2!3d-7.88033!4d110.332587!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11y41chm52?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3333,25 +3254,24 @@
           <t>0896-7185-4439</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F76" t="n">
-        <v>4.6</v>
+        <v>-7.803494</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.803494</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.416619</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Abang+Express+Banguntapan+Bantul+Yogyakarta/@-7.8034943,110.3445207,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a575ed50b142d:0xd14f101b39d09279!8m2!3d-7.8034943!4d110.4166185!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARBjb3Jwb3JhdGVfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TYTJNM00xTkJFQUXgAQD6AQQIABAs!16s%2Fg%2F11mv0m35fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Abang+Express+Banguntapan+Bantul+Yogyakarta/@-7.8034943,110.3445207,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a575ed50b142d:0xd14f101b39d09279!8m2!3d-7.8034943!4d110.4166185!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARBjb3Jwb3JhdGVfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5TYTJNM00xTkJFQUXgAQD6AQQIABAs!16s%2Fg%2F11mv0m35fl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3378,25 +3298,24 @@
           <t>(0274) 4283336</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.5</v>
+        <v>-7.819942</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.819942</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.355605</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Superindo+DTY+(Depo+Transit+Yogya)/@-7.8199417,110.2835068,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57bf772546cd:0x3cd1c1f09efd1d38!8m2!3d-7.8199417!4d110.3556046!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQl3YXJlaG91c2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhbk5oTWpGM1JSQULgAQD6AQQIABAk!16s%2Fg%2F11d_wxsbkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Superindo+DTY+(Depo+Transit+Yogya)/@-7.8199417,110.2835068,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57bf772546cd:0x3cd1c1f09efd1d38!8m2!3d-7.8199417!4d110.3556046!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQl3YXJlaG91c2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVhbk5oTWpGM1JSQULgAQD6AQQIABAk!16s%2Fg%2F11d_wxsbkt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3415,25 +3334,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.1</v>
+        <v>-7.858527</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.858527</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.328148</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Rogoitan/@-7.8199417,110.2835068,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af89f9f13b46d:0x6b1be54d8584327!8m2!3d-7.8585271!4d110.328148!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11gcm0nt7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Rogoitan/@-7.8199417,110.2835068,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af89f9f13b46d:0x6b1be54d8584327!8m2!3d-7.8585271!4d110.328148!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11gcm0nt7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3457,22 +3375,21 @@
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="F79" t="n">
+        <v>-7.894252</v>
+      </c>
       <c r="G79" t="n">
-        <v>-7.894252</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.332326</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/John+Transport/@-7.8942519,110.2602284,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55000feb94d5:0x9afffb1300b90c26!8m2!3d-7.8942519!4d110.3323262!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgELcGFya2luZ19sb3TgAQA!16s%2Fg%2F11ltqjng6r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3487,25 +3404,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>-7.919009</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.919009</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.329854</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Batas+Kecamatan+Bantul/@-7.8942519,110.2602284,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff699c52d183:0x39cc0851d90f2cad!8m2!3d-7.9190094!4d110.3298535!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11t40ck24w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Batas+Kecamatan+Bantul/@-7.8942519,110.2602284,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff699c52d183:0x39cc0851d90f2cad!8m2!3d-7.9190094!4d110.3298535!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11t40ck24w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3528,25 +3444,24 @@
           <t>(0274) 4342598</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.5</v>
+        <v>-7.808768</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.808768</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.324347</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Herona+Express+Cabang+Yogyakarta/@-7.8087678,110.2522491,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af80f50d7233b:0x86dff75a2a4b0255!8m2!3d-7.8087678!4d110.3243469!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSNWNuRlRXbWRSUlJBQuABAPoBBAgAECc!16s%2Fg%2F11c2pq0d2v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3565,25 +3480,24 @@
           <t>0812-1140-7667</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.6</v>
+        <v>-7.827745</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.827745</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.353246</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MAHIKA+Trans+(Agen+Tiket+Bus,+Kapal+Laut,+Pesawat,+Kereta+Api+-+Tour+%26+Travel)/@-7.8087678,110.2522491,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a573fb4a525c7:0xf70893f86d50fdbb!8m2!3d-7.8277447!4d110.3532464!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQ10cmF2ZWxfYWdlbmN54AEA!16s%2Fg%2F11gnp945_0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3602,25 +3516,24 @@
           <t>0878-2111-1831</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.4</v>
+        <v>-7.802923</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.802923</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.341423</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sadana+Express+Yogyakarta/@-7.8087678,110.2522491,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57fa43d72585:0x49ea7effc1600656!8m2!3d-7.8029231!4d110.3414225!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2QyVnhOa3RuRUFF4AEA-gEECGEQRA!16s%2Fg%2F11b63cwssz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sadana+Express+Yogyakarta/@-7.8087678,110.2522491,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57fa43d72585:0x49ea7effc1600656!8m2!3d-7.8029231!4d110.3414225!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSb2QyVnhOa3RuRUFF4AEA-gEECGEQRA!16s%2Fg%2F11b63cwssz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3647,25 +3560,24 @@
           <t>0878-3900-0060</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.8</v>
+        <v>-7.838935</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.838935</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.380326</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Travel+Bandara+Jogja+(YIA)/@-7.838935,110.3082283,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a577fa7cda6bf:0xf34d969b8c31ba17!8m2!3d-7.838935!4d110.3803261!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQ10cmF2ZWxfYWdlbmN54AEA!16s%2Fg%2F11rjvytvtj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Travel+Bandara+Jogja+(YIA)/@-7.838935,110.3082283,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a577fa7cda6bf:0xf34d969b8c31ba17!8m2!3d-7.838935!4d110.3803261!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQ10cmF2ZWxfYWdlbmN54AEA!16s%2Fg%2F11rjvytvtj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3688,25 +3600,24 @@
           <t>0811-390-317</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.9</v>
+        <v>-7.890794</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.890794</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.328765</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sewa+Mobil+Jogja+-+Wicandra+Group+2/@-7.8907938,110.2566672,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5593a86d3411:0xa000e7d35343f23b!8m2!3d-7.8907938!4d110.328765!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmRqUTNTelIzUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11h32z85m2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sewa+Mobil+Jogja+-+Wicandra+Group+2/@-7.8907938,110.2566672,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5593a86d3411:0xa000e7d35343f23b!8m2!3d-7.8907938!4d110.328765!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VRMmRqUTNTelIzUlJBQuABAPoBBAgAEDQ!16s%2Fg%2F11h32z85m2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3733,25 +3644,24 @@
           <t>0852-2501-2377</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.2</v>
+        <v>-7.834999</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.834999</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.366189</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PT+Karya+Mulia+Loka+Persada+pak+ludo/@-7.8349988,110.2940908,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b283bb9d27:0xc2d5a41de2f6918b!8m2!3d-7.8349988!4d110.3661886!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGNqWjJabUZCRUFF4AEA-gEECAAQIw!16s%2Fg%2F11bbx2swv4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PT+Karya+Mulia+Loka+Persada+pak+ludo/@-7.8349988,110.2940908,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b283bb9d27:0xc2d5a41de2f6918b!8m2!3d-7.8349988!4d110.3661886!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeGNqWjJabUZCRUFF4AEA-gEECAAQIw!16s%2Fg%2F11bbx2swv4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3771,22 +3681,21 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="F87" t="n">
+        <v>-7.894213</v>
+      </c>
       <c r="G87" t="n">
-        <v>-7.894213</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.332273</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Home+John+Transprot/@-7.894213,110.2601754,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5500198c4963:0xb1787dc858d5a515!8m2!3d-7.894213!4d110.3322732!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11whs9d23n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3801,25 +3710,24 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>-7.8852</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.8852</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.33093</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pasar+Bantul+2/@-7.894213,110.2601754,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55ff55775a79:0x72aaef3cb51cd6de!8m2!3d-7.8852!4d110.33093!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEIYnVzX3N0b3DgAQA!16s%2Fg%2F11k3lm8200?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pasar+Bantul+2/@-7.894213,110.2601754,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55ff55775a79:0x72aaef3cb51cd6de!8m2!3d-7.8852!4d110.33093!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEIYnVzX3N0b3DgAQA!16s%2Fg%2F11k3lm8200?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -3843,22 +3751,21 @@
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>-7.836658</v>
+      </c>
       <c r="G89" t="n">
-        <v>-7.836658</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.352165</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/NEXT+CARGO+YOGYAKARTA/@-7.8366578,110.2800669,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57002a051b0d:0x96c869b3409b5f08!8m2!3d-7.8366578!4d110.3521647!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F11yb0nynym?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3873,25 +3780,24 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>-7.87486</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.87486</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.33581</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+N+2+Bantul/@-7.8366578,110.2800669,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a560158be379f:0xf7b0f3cc8fe19a94!8m2!3d-7.87486!4d110.33581!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEIYnVzX3N0b3DgAQA!16s%2Fg%2F11k3lmkrq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+N+2+Bantul/@-7.8366578,110.2800669,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a560158be379f:0xf7b0f3cc8fe19a94!8m2!3d-7.87486!4d110.33581!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEIYnVzX3N0b3DgAQA!16s%2Fg%2F11k3lmkrq_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3910,25 +3816,24 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>-7.900298</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.900298</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.291168</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Benyo/@-7.9002985,110.2190705,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff224cc3a0c9:0x2e7e23b17a683aa3!8m2!3d-7.9002985!4d110.2911683!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjVlWEZFYzNCblJSQULgAQD6AQQIIhA4!16s%2Fg%2F11f1x5nss8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Benyo/@-7.9002985,110.2190705,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff224cc3a0c9:0x2e7e23b17a683aa3!8m2!3d-7.9002985!4d110.2911683!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjVlWEZFYzNCblJSQULgAQD6AQQIIhA4!16s%2Fg%2F11f1x5nss8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3947,25 +3852,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F92" t="n">
-        <v>4.5</v>
+        <v>-7.899228</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.899228</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.297768</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Gesikan/@-7.9002985,110.2190705,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff3cf4365745:0x129b1a60692c267a!8m2!3d-7.8992276!4d110.2977676!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldMVkJ4UlMxUlJSQULgAQD6AQQIABAi!16s%2Fg%2F11gcm0lm7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Gesikan/@-7.9002985,110.2190705,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff3cf4365745:0x129b1a60692c267a!8m2!3d-7.8992276!4d110.2977676!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldMVkJ4UlMxUlJSQULgAQD6AQQIABAi!16s%2Fg%2F11gcm0lm7x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3985,22 +3889,21 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>-7.903366</v>
+      </c>
       <c r="G93" t="n">
-        <v>-7.903366</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.337186</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Batas+Kal.+Bantul+-+Trirenggo/@-7.9033656,110.2650879,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a553768d94a41:0x46976e20962ea2!8m2!3d-7.9033656!4d110.3371857!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11t40cwvkm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4019,25 +3922,24 @@
           <t>0823-2224-5565</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>-7.885625</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.885625</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.343314</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Aan+Jasa+Angkut/@-7.9033656,110.2650879,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55085e72ff35:0xe34ff517144ae90a!8m2!3d-7.8856252!4d110.3433139!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgELY2FyX3NlcnZpY2XgAQA!16s%2Fg%2F11gjs_0_13?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4057,22 +3959,21 @@
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="F95" t="n">
+        <v>-7.875006</v>
+      </c>
       <c r="G95" t="n">
-        <v>-7.875006</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.337956</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+Rental+Mobil+Plus+Driver+(ADR+TRANS)/@-7.9033656,110.2650879,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57694a0336ad:0x5d2ae786335d40d6!8m2!3d-7.8750059!4d110.3379562!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11tm_jpwmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4095,25 +3996,24 @@
           <t>0857-2527-7727</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.8</v>
+        <v>-7.825477</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.825477</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.359699</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gambus+Tour+%26+Travel/@-7.8254771,110.287601,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a572b819acb77:0x67baa787a60ca3e!8m2!3d-7.8254771!4d110.3596988!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWRUUnVibWQzUlJBQuABAPoBBAgAEDY!16s%2Fg%2F11fswb7b23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gambus+Tour+%26+Travel/@-7.8254771,110.287601,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a572b819acb77:0x67baa787a60ca3e!8m2!3d-7.8254771!4d110.3596988!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOYWRUUnVibWQzUlJBQuABAPoBBAgAEDY!16s%2Fg%2F11fswb7b23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -4133,22 +4033,21 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>-7.886789</v>
+      </c>
       <c r="G97" t="n">
-        <v>-7.886789</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.337201</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/RUMAH+AMEL/@-7.8867889,110.265103,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a550004b86863:0xd78a71a0cc9502f6!8m2!3d-7.8867889!4d110.3372008!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgELcGFya2luZ19sb3TgAQA!16s%2Fg%2F11w2fgtd72?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4163,25 +4062,24 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.4</v>
+        <v>-7.83424</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.83424</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.385628</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Varia+Usaha+Bantul/@-7.83424,110.3135302,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57023ba44b47:0xf8c552402967b1b8!8m2!3d-7.83424!4d110.385628!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZHpnMlkzaG5SUkFC4AEA-gEECAAQEA!16s%2Fg%2F1hc2t5k5x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Varia+Usaha+Bantul/@-7.83424,110.3135302,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57023ba44b47:0xf8c552402967b1b8!8m2!3d-7.83424!4d110.385628!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJYZHpnMlkzaG5SUkFC4AEA-gEECAAQEA!16s%2Fg%2F1hc2t5k5x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4201,22 +4099,21 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="F99" t="n">
+        <v>-7.840742</v>
+      </c>
       <c r="G99" t="n">
-        <v>-7.840742</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.300263</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/*BERKAH+KACAMATA+,TRANSPORTASI+%26+SNACK*/@-7.840742,110.2281649,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af900147cd047:0x169033e0c2883b36!8m2!3d-7.840742!4d110.3002627!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11vscx8m8n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4236,22 +4133,21 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>-7.88219</v>
+      </c>
       <c r="G100" t="n">
-        <v>-7.88219</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.310927</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jogja+travel/@-7.840742,110.2281649,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff4b3c84b013:0xfadd3c1c41a5b92f!8m2!3d-7.8821898!4d110.3109273!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEXYWlycG9ydF9zaHV0dGxlX3NlcnZpY2XgAQA!16s%2Fg%2F11gcp8ckzv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4267,22 +4163,21 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>-7.881814</v>
+      </c>
       <c r="G101" t="n">
-        <v>-7.881814</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.316795</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Krisna+putra/@-7.840742,110.2281649,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff1f75447e6b:0x13d683244db8f4c3!8m2!3d-7.8818143!4d110.3167952!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11vlprl5kt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4305,25 +4200,24 @@
           <t>(0274) 2810182</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>5</v>
+      </c>
       <c r="F102" t="n">
-        <v>5</v>
+        <v>-7.8565</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.8565</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.341571</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PT+Unggul+Antar+Benua/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57002618d04b:0x518c3351ada8b906!8m2!3d-7.8565001!4d110.3415707!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeUxXUnhhM2hCUlJBQuABAPoBBAgAECk!16s%2Fg%2F11vqvg740l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PT+Unggul+Antar+Benua/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57002618d04b:0x518c3351ada8b906!8m2!3d-7.8565001!4d110.3415707!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOeUxXUnhhM2hCUlJBQuABAPoBBAgAECk!16s%2Fg%2F11vqvg740l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -4342,25 +4236,24 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>-7.887666</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.887666</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.343988</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yanto+fam/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55003edab4b9:0xb936b62588bbeeef!8m2!3d-7.8876663!4d110.3439878!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtwYXJraW5nX2xvdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMmF6Z3lPR2gzUlJBQuABAPoBBAgAECQ!16s%2Fg%2F11wtf3ry5g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yanto+fam/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55003edab4b9:0xb936b62588bbeeef!8m2!3d-7.8876663!4d110.3439878!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQtwYXJraW5nX2xvdJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOMmF6Z3lPR2gzUlJBQuABAPoBBAgAECQ!16s%2Fg%2F11wtf3ry5g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4384,22 +4277,21 @@
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>-7.828627</v>
+      </c>
       <c r="G104" t="n">
-        <v>-7.828627</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.367172</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Menara+Bintang+Transports/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57afdbab0569:0xde4d243da0de0113!8m2!3d-7.8286269!4d110.3671722!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F1pzpp1qbb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4422,25 +4314,24 @@
           <t>0812-5280-5335</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.6</v>
+        <v>-7.833971</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.833971</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.361596</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/INDAH+CARGO+SEWON/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57bdc9bc0e09:0xd694490657194413!8m2!3d-7.8339712!4d110.3615958!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARpmcmVpZ2h0X2ZvcndhcmRpbmdfc2VydmljZeABAA!16s%2Fg%2F11q2s6b3bx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4455,25 +4346,24 @@
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>5</v>
+      </c>
       <c r="F106" t="n">
-        <v>5</v>
+        <v>-7.906641</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.906641</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.340829</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Batas+Timur+Dusun+Kweden/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55820bdc015b:0xd605c874486b1a8c!8m2!3d-7.906641!4d110.3408291!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11t5lgy798?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Batas+Timur+Dusun+Kweden/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55820bdc015b:0xd605c874486b1a8c!8m2!3d-7.906641!4d110.3408291!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11t5lgy798?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4492,25 +4382,24 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F107" t="n">
-        <v>4.2</v>
+        <v>-7.888815</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.888815</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.349858</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Neco/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e610ca65d5:0xf48113199adbc953!8m2!3d-7.8888147!4d110.3498578!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRhVFZFWkV4QkVBReABAPoBBAgAEEM!16s%2Fg%2F11cjjhlg3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Neco/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a55e610ca65d5:0xf48113199adbc953!8m2!3d-7.8888147!4d110.3498578!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRhVFZFWkV4QkVBReABAPoBBAgAEEM!16s%2Fg%2F11cjjhlg3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4530,22 +4419,21 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
+      <c r="F108" t="n">
+        <v>-7.874815</v>
+      </c>
       <c r="G108" t="n">
-        <v>-7.874815</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.325513</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/P+I+TRANSLOGISTIK/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9b37c422f63:0x6edc30435f5bcc0b!8m2!3d-7.8748148!4d110.3255132!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F11p_1hgc5p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4565,22 +4453,21 @@
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>-7.833729</v>
+      </c>
       <c r="G109" t="n">
-        <v>-7.833729</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.366544</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Suroto/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57b276150d37:0x4362db71db1589f7!8m2!3d-7.833729!4d110.366544!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F11bc7q1dt9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4599,25 +4486,24 @@
           <t>0878-3820-1234</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.3</v>
+        <v>-7.840986</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.840986</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.358532</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Rental+Mobil+Jogja+Aselia/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a564bba4bccb1:0x3254f6c09f6a9095!8m2!3d-7.8409862!4d110.3585316!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARFjYXJfcmVudGFsX2FnZW5jeZoBIENoUkRTVWhOTUc5blMwVkpRMEZuU1VST2Mwc3hRaEFC4AEA-gEECEUQMQ!16s%2Fg%2F1tp5p00g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4633,22 +4519,21 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
+      <c r="F111" t="n">
+        <v>-7.898962</v>
+      </c>
       <c r="G111" t="n">
-        <v>-7.898962</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.329994</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gin/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7afffbe9258ee7:0xa0b8915a38a3c492!8m2!3d-7.8989623!4d110.329994!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgELcGFya2luZ19sb3TgAQA!16s%2Fg%2F11sh6_whvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4671,25 +4556,24 @@
           <t>0822-3305-3800</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F112" t="n">
-        <v>4.8</v>
+        <v>-7.891583</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.891583</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.347346</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jogja+Private+Tour+(PT+AGUNG+GEDE+TOURINDO)/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57c8327ea6d7:0xeb7d3ca30bce817c!8m2!3d-7.8915834!4d110.3473462!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQt0b3VyX2FnZW5jeeABAA!16s%2Fg%2F11c2nq21zp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jogja+Private+Tour+(PT+AGUNG+GEDE+TOURINDO)/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a57c8327ea6d7:0xeb7d3ca30bce817c!8m2!3d-7.8915834!4d110.3473462!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQt0b3VyX2FnZW5jeeABAA!16s%2Fg%2F11c2nq21zp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4713,22 +4597,21 @@
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>-7.867356</v>
+      </c>
       <c r="G113" t="n">
-        <v>-7.867356</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.353266</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr">
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Razaan+Abadi/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a5612c0254595:0xd56cf398ab58e98b!8m2!3d-7.8673564!4d110.3532662!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEaZnJlaWdodF9mb3J3YXJkaW5nX3NlcnZpY2XgAQA!16s%2Fg%2F1pzvqx_jy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4744,22 +4627,21 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>-7.874818</v>
+      </c>
       <c r="G114" t="n">
-        <v>-7.874818</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.325537</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr">
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Starback/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af90044fb6e75:0x3f9b63d4b975a85a!8m2!3d-7.8748176!4d110.3255365!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgELcGFya2luZ19sb3TgAQA!16s%2Fg%2F11wwgl370r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4775,22 +4657,21 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
+      <c r="F115" t="n">
+        <v>-7.88742</v>
+      </c>
       <c r="G115" t="n">
-        <v>-7.88742</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.3294</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr">
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Eks+Stasiun+KA+Bantul/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff5637e1bb9d:0x5152355a53ada8d!8m2!3d-7.88742!4d110.3294!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEIYnVzX3N0b3DgAQA!16s%2Fg%2F11k3lmptxg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4805,25 +4686,24 @@
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F116" t="n">
-        <v>4.3</v>
+        <v>-7.84568</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.84568</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.338139</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Kasongan/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a562ec30b15b9:0xc74d1daec9c454f6!8m2!3d-7.8456804!4d110.3381393!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11g7z0q4sp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J116" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Kasongan/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a562ec30b15b9:0xc74d1daec9c454f6!8m2!3d-7.8456804!4d110.3381393!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEGYnJpZGdl4AEA!16s%2Fg%2F11g7z0q4sp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -4843,22 +4723,21 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>-7.889454</v>
+      </c>
       <c r="G117" t="n">
-        <v>-7.889454</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.328066</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/kreta+mini+Alif+Zhafran/@-7.8565001,110.2694729,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff00542fcf4b:0xf80b77c4fa1f7bc2!8m2!3d-7.8894537!4d110.3280658!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11y3m0nd1p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4878,22 +4757,21 @@
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
+      <c r="F118" t="n">
+        <v>-6.968667</v>
+      </c>
       <c r="G118" t="n">
-        <v>-6.968667</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.123495</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jasa+Transportasi+JMS+Trans/@-6.968667,110.0513976,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0xaf24cc28c1b1e59f:0x96240f7948f0b33b!8m2!3d-6.968667!4d110.1234954!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEWdHJhbnNwb3J0YXRpb25fc2VydmljZeABAA!16s%2Fg%2F11v3lnmdmw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4912,25 +4790,24 @@
           <t>0813-2600-8562</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>5</v>
+      </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>-7.81077</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.81077</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.406334</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KALOG+Express+Banguntapan+Bantul/@-7.8107704,110.334236,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a573a279dc733:0xb2a0b588f37be6fc!8m2!3d-7.8107704!4d110.4063338!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ1T0haWVVHWm5FQUXgAQD6AQQIABAl!16s%2Fg%2F11wj5vk9fw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KALOG+Express+Banguntapan+Bantul/@-7.8107704,110.334236,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7a573a279dc733:0xb2a0b588f37be6fc!8m2!3d-7.8107704!4d110.4063338!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySARZ0cmFuc3BvcnRhdGlvbl9zZXJ2aWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ1T0haWVVHWm5FQUXgAQD6AQQIABAl!16s%2Fg%2F11wj5vk9fw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4950,22 +4827,21 @@
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>-7.88725</v>
+      </c>
       <c r="G120" t="n">
-        <v>-7.88725</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.3293</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr">
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Eks+Stasiun+KA+Bantul/@-7.88725,110.2572022,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7aff5647962621:0x535d4fcd219ce999!8m2!3d-7.88725!4d110.3293!15sChNUcmFuc3BvcnRhc2kgQmFudHVskgEIYnVzX3N0b3DgAQA!16s%2Fg%2F11k3lnf9qn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4980,25 +4856,24 @@
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F121" t="n">
-        <v>4.4</v>
+        <v>-7.877948</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.877948</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.315241</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jembatan+Sindon/@-7.88725,110.2572022,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9693b153c17:0xc2791f1663513412!8m2!3d-7.8779485!4d110.3152408!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZjVFI2TjJsblJSQULgAQD6AQQIABBI!16s%2Fg%2F11rv2l1stc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jembatan+Sindon/@-7.88725,110.2572022,13z/data=!4m10!1m2!2m1!1sTransportasi+Bantul!3m6!1s0x2e7af9693b153c17:0xc2791f1663513412!8m2!3d-7.8779485!4d110.3152408!15sChNUcmFuc3BvcnRhc2kgQmFudHVsWhUiE3RyYW5zcG9ydGFzaSBiYW50dWySAQZicmlkZ2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZjVFI2TjJsblJSQULgAQD6AQQIABBI!16s%2Fg%2F11rv2l1stc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
